--- a/data/trans_dic/P19C01-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P19C01-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>32,22; 42,48</t>
+          <t>32,09; 42,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>31,39; 41,93</t>
+          <t>32,06; 42,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>45,93; 56,26</t>
+          <t>45,56; 56,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>63,2; 71,91</t>
+          <t>63,39; 72,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>35,31; 46,97</t>
+          <t>34,78; 47,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>39,48; 51,56</t>
+          <t>40,07; 52,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>47,69; 58,73</t>
+          <t>47,52; 58,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>63,09; 70,42</t>
+          <t>63,12; 70,61</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>34,8; 42,47</t>
+          <t>34,98; 42,65</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>36,33; 44,64</t>
+          <t>36,57; 44,89</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>48,19; 56,13</t>
+          <t>48,13; 55,91</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>64,54; 70,27</t>
+          <t>64,28; 70,31</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25,68; 36,26</t>
+          <t>25,55; 37,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>31,91; 42,63</t>
+          <t>31,61; 42,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>40,4; 52,14</t>
+          <t>40,14; 52,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>61,1; 70,08</t>
+          <t>61,18; 70,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,45; 44,18</t>
+          <t>32,71; 43,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>40,73; 52,1</t>
+          <t>39,93; 51,88</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>48,74; 59,72</t>
+          <t>48,81; 59,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>63,58; 71,98</t>
+          <t>63,65; 71,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>30,74; 38,97</t>
+          <t>30,62; 38,36</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>36,97; 44,87</t>
+          <t>37,0; 45,14</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>46,4; 54,54</t>
+          <t>46,35; 54,59</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>63,22; 69,75</t>
+          <t>63,22; 69,83</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,64; 31,61</t>
+          <t>23,25; 31,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>22,86; 31,2</t>
+          <t>22,65; 30,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>33,21; 42,78</t>
+          <t>32,99; 42,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,77; 57,82</t>
+          <t>12,93; 57,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>26,96; 43,44</t>
+          <t>27,58; 43,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26,55; 38,86</t>
+          <t>26,71; 39,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>25,26; 42,18</t>
+          <t>26,17; 42,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>49,67; 61,73</t>
+          <t>49,43; 61,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>25,56; 33,06</t>
+          <t>25,38; 33,08</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>25,15; 31,56</t>
+          <t>24,87; 31,79</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>32,66; 40,82</t>
+          <t>32,86; 41,33</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>15,02; 57,29</t>
+          <t>17,87; 57,66</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>21,64; 27,78</t>
+          <t>20,81; 26,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,12; 26,85</t>
+          <t>21,12; 26,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>33,62; 40,02</t>
+          <t>33,3; 39,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>48,39; 55,38</t>
+          <t>48,56; 55,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,04; 36,9</t>
+          <t>29,35; 37,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,81; 39,05</t>
+          <t>32,37; 39,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>35,44; 43,49</t>
+          <t>36,05; 43,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>26,46; 61,46</t>
+          <t>26,39; 61,37</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>25,8; 30,72</t>
+          <t>25,78; 30,57</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,36; 30,86</t>
+          <t>26,44; 30,93</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>35,54; 40,35</t>
+          <t>35,45; 40,46</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>32,8; 56,44</t>
+          <t>34,08; 56,4</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>22,79; 34,45</t>
+          <t>23,14; 34,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,77; 25,14</t>
+          <t>17,43; 25,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>25,72; 35,0</t>
+          <t>25,93; 34,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>41,67; 51,73</t>
+          <t>41,48; 51,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>24,64; 33,17</t>
+          <t>24,21; 32,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>22,34; 29,78</t>
+          <t>22,82; 29,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>33,65; 41,98</t>
+          <t>33,5; 41,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>45,45; 63,03</t>
+          <t>45,69; 64,2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>25,32; 32,56</t>
+          <t>25,42; 32,1</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>21,5; 27,25</t>
+          <t>21,57; 26,81</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>31,39; 37,63</t>
+          <t>31,12; 37,34</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>45,47; 59,99</t>
+          <t>45,43; 58,5</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>37,8; 51,28</t>
+          <t>37,76; 51,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>44,37; 56,81</t>
+          <t>43,91; 57,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>49,17; 61,43</t>
+          <t>48,56; 61,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>53,95; 76,28</t>
+          <t>52,9; 75,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>22,97; 28,45</t>
+          <t>23,06; 28,67</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>28,94; 35,4</t>
+          <t>29,23; 35,53</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>40,97; 47,95</t>
+          <t>40,81; 47,84</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>54,25; 61,13</t>
+          <t>54,33; 60,82</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>26,42; 31,74</t>
+          <t>26,52; 31,54</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>33,0; 38,54</t>
+          <t>33,18; 38,55</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>43,76; 50,06</t>
+          <t>43,78; 49,76</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>55,92; 63,39</t>
+          <t>56,43; 63,42</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>27,81; 31,62</t>
+          <t>27,89; 31,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>27,62; 31,06</t>
+          <t>27,66; 31,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>38,79; 42,69</t>
+          <t>38,8; 42,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>40,47; 58,1</t>
+          <t>40,78; 58,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>29,65; 33,23</t>
+          <t>29,6; 33,21</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>32,57; 35,95</t>
+          <t>32,46; 36,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>41,61; 45,28</t>
+          <t>41,62; 45,52</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>43,9; 59,95</t>
+          <t>44,64; 60,18</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>29,26; 31,82</t>
+          <t>29,37; 31,87</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>30,69; 33,19</t>
+          <t>30,63; 33,07</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>40,92; 43,56</t>
+          <t>40,86; 43,43</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>47,44; 58,54</t>
+          <t>47,44; 58,44</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo por su última visita al dentista fue una revisión o chequeo</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>349</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>818</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>143596</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>144144</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>198461</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>338416</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>110644</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>134735</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>167421</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>294477</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>254240</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>278879</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>365882</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>632893</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>124454; 163696</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>126750; 166238</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>176586; 218931</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>316428; 360246</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>93301; 126382</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>117782; 153584</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>150064; 185500</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>278292; 311340</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>229478; 279810</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>252049; 309426</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>338530; 393261</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>604258; 661038</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>403</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>707</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>92592</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>141073</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>146980</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>294433</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>126391</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>143713</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>180837</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>255817</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>218983</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>284786</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>327817</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>550250</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>76712; 112665</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>121282; 161857</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>127099; 165539</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>274364; 314019</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>109113; 145161</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>125188; 162654</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>162829; 198300</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>240350; 271512</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>194084; 243095</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>257988; 314760</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>301403; 354969</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>522236; 576787</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>426</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>117116</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>141405</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>152351</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>234748</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>49115</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>78234</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>47138</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>91804</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>166231</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>219639</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>199490</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>326551</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>100026; 136284</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>121307; 164251</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>133688; 172006</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>85442; 381540</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>38632; 60312</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>64279; 94176</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>36486; 59291</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>81541; 101691</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>144748; 188640</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>193055; 246761</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>178987; 225083</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>147574; 476109</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>562</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>738</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>397</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>571</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>211592</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>231782</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>322218</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>516766</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>198750</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>248136</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>270690</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>457130</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>410342</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>479918</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>592909</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>973897</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>181324; 234321</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>205452; 261041</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>292836; 350361</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>484708; 552987</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>174699; 222176</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>225929; 275715</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>246565; 296950</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>253064; 588487</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>378094; 448459</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>441735; 516681</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>554327; 632594</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>666896; 1103838</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>807</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>70280</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>85067</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>128078</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>203960</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>131667</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>173873</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>210424</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>422113</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>201947</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>258940</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>338502</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>626073</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>57383; 85235</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>70289; 102315</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>110255; 148046</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>182041; 227033</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>110420; 150321</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>152849; 199608</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>186766; 232799</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>371938; 522568</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>178985; 226011</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>231482; 287697</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>305786; 366903</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>569112; 732858</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>474</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>680</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>94788</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>112378</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>133029</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>153437</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>242424</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>297920</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>365064</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>429637</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>337212</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>410299</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>498093</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>583074</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>80145; 109193</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>97131; 127417</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>117306; 147368</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>123367; 175857</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>218063; 271071</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>270525; 328804</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>336819; 394831</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>404153; 452435</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>307100; 365215</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>380464; 441992</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>467049; 530833</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>551405; 619676</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>710</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>799</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1029</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>1774</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>838</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>998</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1197</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>2964</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1548</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1797</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>2226</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>4738</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>729964</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>855849</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1081118</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1741760</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>858991</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1076613</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1241573</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1950979</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1588955</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1932462</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>2322692</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>3692739</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>683327; 776182</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>805280; 907488</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1030310; 1127126</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>1336940; 1903952</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>810669; 909471</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1019795; 1130861</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1188552; 1299894</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1562609; 2106462</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1524012; 1653528</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1854323; 2001747</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>2251771; 2393447</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>3215788; 3961712</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P19C01-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P19C01-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
